--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp2-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp2-Bmpr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,16 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Bmp2</t>
+  </si>
+  <si>
+    <t>Bmpr1a</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Bmp2</t>
-  </si>
-  <si>
-    <t>Bmpr1a</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.580074666666667</v>
+        <v>16.65673</v>
       </c>
       <c r="H2">
-        <v>7.740224000000001</v>
+        <v>49.97019</v>
       </c>
       <c r="I2">
-        <v>0.3568173349568206</v>
+        <v>0.83267636245756</v>
       </c>
       <c r="J2">
-        <v>0.3568173349568206</v>
+        <v>0.8326763624575599</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.330485333333333</v>
+        <v>6.101885666666667</v>
       </c>
       <c r="N2">
-        <v>6.991456</v>
+        <v>18.305657</v>
       </c>
       <c r="O2">
-        <v>0.03655621216383393</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="P2">
-        <v>0.03655621216383394</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="Q2">
-        <v>6.012826169571556</v>
+        <v>101.6374620405367</v>
       </c>
       <c r="R2">
-        <v>54.11543552614401</v>
+        <v>914.7371583648301</v>
       </c>
       <c r="S2">
-        <v>0.01304389020041533</v>
+        <v>0.09107294534935871</v>
       </c>
       <c r="T2">
-        <v>0.01304389020041533</v>
+        <v>0.0910729453493587</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.580074666666667</v>
+        <v>16.65673</v>
       </c>
       <c r="H3">
-        <v>7.740224000000001</v>
+        <v>49.97019</v>
       </c>
       <c r="I3">
-        <v>0.3568173349568206</v>
+        <v>0.83267636245756</v>
       </c>
       <c r="J3">
-        <v>0.3568173349568206</v>
+        <v>0.8326763624575599</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>29.178763</v>
       </c>
       <c r="N3">
-        <v>87.536289</v>
+        <v>87.53628900000001</v>
       </c>
       <c r="O3">
-        <v>0.4577008212193114</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="P3">
-        <v>0.4577008212193115</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="Q3">
-        <v>75.28338722097068</v>
+        <v>486.02277702499</v>
       </c>
       <c r="R3">
-        <v>677.5504849887361</v>
+        <v>4374.204993224911</v>
       </c>
       <c r="S3">
-        <v>0.1633155872350229</v>
+        <v>0.4355040446886266</v>
       </c>
       <c r="T3">
-        <v>0.1633155872350229</v>
+        <v>0.4355040446886266</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.580074666666667</v>
+        <v>16.65673</v>
       </c>
       <c r="H4">
-        <v>7.740224000000001</v>
+        <v>49.97019</v>
       </c>
       <c r="I4">
-        <v>0.3568173349568206</v>
+        <v>0.83267636245756</v>
       </c>
       <c r="J4">
-        <v>0.3568173349568206</v>
+        <v>0.8326763624575599</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.3937893333333333</v>
+        <v>0.146644</v>
       </c>
       <c r="N4">
-        <v>1.181368</v>
+        <v>0.439932</v>
       </c>
       <c r="O4">
-        <v>0.006177016525822971</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="P4">
-        <v>0.006177016525822972</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="Q4">
-        <v>1.016005882936889</v>
+        <v>2.44260951412</v>
       </c>
       <c r="R4">
-        <v>9.144052946432002</v>
+        <v>21.98348562708</v>
       </c>
       <c r="S4">
-        <v>0.002204066574728391</v>
+        <v>0.002188717017555506</v>
       </c>
       <c r="T4">
-        <v>0.002204066574728391</v>
+        <v>0.002188717017555506</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.580074666666667</v>
+        <v>16.65673</v>
       </c>
       <c r="H5">
-        <v>7.740224000000001</v>
+        <v>49.97019</v>
       </c>
       <c r="I5">
-        <v>0.3568173349568206</v>
+        <v>0.83267636245756</v>
       </c>
       <c r="J5">
-        <v>0.3568173349568206</v>
+        <v>0.8326763624575599</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.67565866666667</v>
+        <v>15.02284966666667</v>
       </c>
       <c r="N5">
-        <v>65.026976</v>
+        <v>45.068549</v>
       </c>
       <c r="O5">
-        <v>0.340006420841172</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="P5">
-        <v>0.3400064208411721</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="Q5">
-        <v>55.92481780918045</v>
+        <v>250.2315507282567</v>
       </c>
       <c r="R5">
-        <v>503.3233602826242</v>
+        <v>2252.08395655431</v>
       </c>
       <c r="S5">
-        <v>0.1213201849527542</v>
+        <v>0.2242216982461703</v>
       </c>
       <c r="T5">
-        <v>0.1213201849527542</v>
+        <v>0.2242216982461703</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,14 +776,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.580074666666667</v>
+        <v>16.65673</v>
       </c>
       <c r="H6">
-        <v>7.740224000000001</v>
+        <v>49.97019</v>
       </c>
       <c r="I6">
-        <v>0.3568173349568206</v>
+        <v>0.83267636245756</v>
       </c>
       <c r="J6">
-        <v>0.3568173349568206</v>
+        <v>0.8326763624575599</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.749056666666666</v>
+        <v>5.288900666666667</v>
       </c>
       <c r="N6">
-        <v>29.24717</v>
+        <v>15.866702</v>
       </c>
       <c r="O6">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="P6">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="Q6">
-        <v>25.15329412956445</v>
+        <v>88.09579040148667</v>
       </c>
       <c r="R6">
-        <v>226.37964716608</v>
+        <v>792.8621136133801</v>
       </c>
       <c r="S6">
-        <v>0.05456615534058732</v>
+        <v>0.07893883754735274</v>
       </c>
       <c r="T6">
-        <v>0.05456615534058732</v>
+        <v>0.07893883754735273</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.580074666666667</v>
+        <v>16.65673</v>
       </c>
       <c r="H7">
-        <v>7.740224000000001</v>
+        <v>49.97019</v>
       </c>
       <c r="I7">
-        <v>0.3568173349568206</v>
+        <v>0.83267636245756</v>
       </c>
       <c r="J7">
-        <v>0.3568173349568206</v>
+        <v>0.8326763624575599</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.4229803333333333</v>
+        <v>0.050258</v>
       </c>
       <c r="N7">
-        <v>1.268941</v>
+        <v>0.150774</v>
       </c>
       <c r="O7">
-        <v>0.006634909297775397</v>
+        <v>0.0009008537317934847</v>
       </c>
       <c r="P7">
-        <v>0.006634909297775398</v>
+        <v>0.0009008537317934848</v>
       </c>
       <c r="Q7">
-        <v>1.091320842531555</v>
+        <v>0.8371339363399999</v>
       </c>
       <c r="R7">
-        <v>9.821887582784001</v>
+        <v>7.53420542706</v>
       </c>
       <c r="S7">
-        <v>0.002367450653312447</v>
+        <v>0.0007501196084961173</v>
       </c>
       <c r="T7">
-        <v>0.002367450653312448</v>
+        <v>0.0007501196084961173</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>5.355062</v>
       </c>
       <c r="I8">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248338</v>
       </c>
       <c r="J8">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248335</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.330485333333333</v>
+        <v>6.101885666666667</v>
       </c>
       <c r="N8">
-        <v>6.991456</v>
+        <v>18.305657</v>
       </c>
       <c r="O8">
-        <v>0.03655621216383393</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="P8">
-        <v>0.03655621216383394</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="Q8">
-        <v>4.159964483363556</v>
+        <v>10.89199202063711</v>
       </c>
       <c r="R8">
-        <v>37.43968035027201</v>
+        <v>98.027928185734</v>
       </c>
       <c r="S8">
-        <v>0.009024395255798349</v>
+        <v>0.009759844196478493</v>
       </c>
       <c r="T8">
-        <v>0.009024395255798351</v>
+        <v>0.00975984419647849</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>5.355062</v>
       </c>
       <c r="I9">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248338</v>
       </c>
       <c r="J9">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248335</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>29.178763</v>
       </c>
       <c r="N9">
-        <v>87.536289</v>
+        <v>87.53628900000001</v>
       </c>
       <c r="O9">
-        <v>0.4577008212193114</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="P9">
-        <v>0.4577008212193115</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="Q9">
         <v>52.08469498276867</v>
       </c>
       <c r="R9">
-        <v>468.762254844918</v>
+        <v>468.7622548449181</v>
       </c>
       <c r="S9">
-        <v>0.112989636373567</v>
+        <v>0.04667084837096611</v>
       </c>
       <c r="T9">
-        <v>0.112989636373567</v>
+        <v>0.04667084837096609</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,40 +1045,40 @@
         <v>5.355062</v>
       </c>
       <c r="I10">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248338</v>
       </c>
       <c r="J10">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248335</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.3937893333333333</v>
+        <v>0.146644</v>
       </c>
       <c r="N10">
-        <v>1.181368</v>
+        <v>0.439932</v>
       </c>
       <c r="O10">
-        <v>0.006177016525822971</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="P10">
-        <v>0.006177016525822972</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="Q10">
-        <v>0.7029220983128889</v>
+        <v>0.2617625706426667</v>
       </c>
       <c r="R10">
-        <v>6.326298884816</v>
+        <v>2.355863135784</v>
       </c>
       <c r="S10">
-        <v>0.001524880049956974</v>
+        <v>0.0002345541477721983</v>
       </c>
       <c r="T10">
-        <v>0.001524880049956974</v>
+        <v>0.0002345541477721983</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>5.355062</v>
       </c>
       <c r="I11">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248338</v>
       </c>
       <c r="J11">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248335</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.67565866666667</v>
+        <v>15.02284966666667</v>
       </c>
       <c r="N11">
-        <v>65.026976</v>
+        <v>45.068549</v>
       </c>
       <c r="O11">
-        <v>0.340006420841172</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="P11">
-        <v>0.3400064208411721</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="Q11">
-        <v>38.69149868361245</v>
+        <v>26.81609712722645</v>
       </c>
       <c r="R11">
-        <v>348.2234881525121</v>
+        <v>241.344874145038</v>
       </c>
       <c r="S11">
-        <v>0.08393518227295045</v>
+        <v>0.02402874785654274</v>
       </c>
       <c r="T11">
-        <v>0.08393518227295046</v>
+        <v>0.02402874785654274</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>5.355062</v>
       </c>
       <c r="I12">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248338</v>
       </c>
       <c r="J12">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248335</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.749056666666666</v>
+        <v>5.288900666666667</v>
       </c>
       <c r="N12">
-        <v>29.24717</v>
+        <v>15.866702</v>
       </c>
       <c r="O12">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="P12">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="Q12">
-        <v>17.40226763050444</v>
+        <v>9.440796993947112</v>
       </c>
       <c r="R12">
-        <v>156.62040867454</v>
+        <v>84.967172945524</v>
       </c>
       <c r="S12">
-        <v>0.03775151015661513</v>
+        <v>0.008459490933974875</v>
       </c>
       <c r="T12">
-        <v>0.03775151015661513</v>
+        <v>0.008459490933974871</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>5.355062</v>
       </c>
       <c r="I13">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248338</v>
       </c>
       <c r="J13">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248335</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1243,28 +1243,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.4229803333333333</v>
+        <v>0.050258</v>
       </c>
       <c r="N13">
-        <v>1.268941</v>
+        <v>0.150774</v>
       </c>
       <c r="O13">
-        <v>0.006634909297775397</v>
+        <v>0.0009008537317934847</v>
       </c>
       <c r="P13">
-        <v>0.006634909297775398</v>
+        <v>0.0009008537317934848</v>
       </c>
       <c r="Q13">
-        <v>0.7550286365935556</v>
+        <v>0.08971156866533334</v>
       </c>
       <c r="R13">
-        <v>6.795257729342</v>
+        <v>0.8074041179879999</v>
       </c>
       <c r="S13">
-        <v>0.001637917071964411</v>
+        <v>8.038666674896444E-05</v>
       </c>
       <c r="T13">
-        <v>0.001637917071964411</v>
+        <v>8.038666674896443E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.06561933333333334</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H14">
-        <v>0.196858</v>
+        <v>0.043031</v>
       </c>
       <c r="I14">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457053</v>
       </c>
       <c r="J14">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457052</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.330485333333333</v>
+        <v>6.101885666666667</v>
       </c>
       <c r="N14">
-        <v>6.991456</v>
+        <v>18.305657</v>
       </c>
       <c r="O14">
-        <v>0.03655621216383393</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="P14">
-        <v>0.03655621216383394</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="Q14">
-        <v>0.1529248939164445</v>
+        <v>0.08752341404077778</v>
       </c>
       <c r="R14">
-        <v>1.376324045248</v>
+        <v>0.787710726367</v>
       </c>
       <c r="S14">
-        <v>0.0003317467475196275</v>
+        <v>7.842595578140198E-05</v>
       </c>
       <c r="T14">
-        <v>0.0003317467475196275</v>
+        <v>7.842595578140196E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.06561933333333334</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H15">
-        <v>0.196858</v>
+        <v>0.043031</v>
       </c>
       <c r="I15">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457053</v>
       </c>
       <c r="J15">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457052</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>29.178763</v>
       </c>
       <c r="N15">
-        <v>87.536289</v>
+        <v>87.53628900000001</v>
       </c>
       <c r="O15">
-        <v>0.4577008212193114</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="P15">
-        <v>0.4577008212193115</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="Q15">
-        <v>1.914690975551333</v>
+        <v>0.4185304502176667</v>
       </c>
       <c r="R15">
-        <v>17.232218779962</v>
+        <v>3.766774051959001</v>
       </c>
       <c r="S15">
-        <v>0.00415362396125902</v>
+        <v>0.0003750270820862657</v>
       </c>
       <c r="T15">
-        <v>0.004153623961259021</v>
+        <v>0.0003750270820862656</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1411,46 +1411,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.06561933333333334</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H16">
-        <v>0.196858</v>
+        <v>0.043031</v>
       </c>
       <c r="I16">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457053</v>
       </c>
       <c r="J16">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457052</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.3937893333333333</v>
+        <v>0.146644</v>
       </c>
       <c r="N16">
-        <v>1.181368</v>
+        <v>0.439932</v>
       </c>
       <c r="O16">
-        <v>0.006177016525822971</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="P16">
-        <v>0.006177016525822972</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="Q16">
-        <v>0.02584019352711111</v>
+        <v>0.002103412654666667</v>
       </c>
       <c r="R16">
-        <v>0.232561741744</v>
+        <v>0.018930713892</v>
       </c>
       <c r="S16">
-        <v>5.605627663590635E-05</v>
+        <v>1.884777343901054E-06</v>
       </c>
       <c r="T16">
-        <v>5.605627663590636E-05</v>
+        <v>1.884777343901054E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.06561933333333334</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H17">
-        <v>0.196858</v>
+        <v>0.043031</v>
       </c>
       <c r="I17">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457053</v>
       </c>
       <c r="J17">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457052</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.67565866666667</v>
+        <v>15.02284966666667</v>
       </c>
       <c r="N17">
-        <v>65.026976</v>
+        <v>45.068549</v>
       </c>
       <c r="O17">
-        <v>0.340006420841172</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="P17">
-        <v>0.3400064208411721</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="Q17">
-        <v>1.422342271267556</v>
+        <v>0.2154827480021111</v>
       </c>
       <c r="R17">
-        <v>12.801080441408</v>
+        <v>1.939344732019</v>
       </c>
       <c r="S17">
-        <v>0.003085550104160975</v>
+        <v>0.0001930847950994574</v>
       </c>
       <c r="T17">
-        <v>0.003085550104160976</v>
+        <v>0.0001930847950994574</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.06561933333333334</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H18">
-        <v>0.196858</v>
+        <v>0.043031</v>
       </c>
       <c r="I18">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457053</v>
       </c>
       <c r="J18">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457052</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>9.749056666666666</v>
+        <v>5.288900666666667</v>
       </c>
       <c r="N18">
-        <v>29.24717</v>
+        <v>15.866702</v>
       </c>
       <c r="O18">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="P18">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="Q18">
-        <v>0.6397265990955555</v>
+        <v>0.07586222819577777</v>
       </c>
       <c r="R18">
-        <v>5.75753939186</v>
+        <v>0.682760053762</v>
       </c>
       <c r="S18">
-        <v>0.001387787253707042</v>
+        <v>6.797687018000404E-05</v>
       </c>
       <c r="T18">
-        <v>0.001387787253707042</v>
+        <v>6.797687018000402E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.06561933333333334</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H19">
-        <v>0.196858</v>
+        <v>0.043031</v>
       </c>
       <c r="I19">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457053</v>
       </c>
       <c r="J19">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457052</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1615,28 +1615,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.4229803333333333</v>
+        <v>0.050258</v>
       </c>
       <c r="N19">
-        <v>1.268941</v>
+        <v>0.150774</v>
       </c>
       <c r="O19">
-        <v>0.006634909297775397</v>
+        <v>0.0009008537317934847</v>
       </c>
       <c r="P19">
-        <v>0.006634909297775398</v>
+        <v>0.0009008537317934848</v>
       </c>
       <c r="Q19">
-        <v>0.02775568748644444</v>
+        <v>0.0007208839993333333</v>
       </c>
       <c r="R19">
-        <v>0.249801187378</v>
+        <v>0.006487955994</v>
       </c>
       <c r="S19">
-        <v>6.021164254545885E-05</v>
+        <v>6.459530546751258E-07</v>
       </c>
       <c r="T19">
-        <v>6.021164254545886E-05</v>
+        <v>6.459530546751258E-07</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.079636333333333</v>
+        <v>1.483811333333333</v>
       </c>
       <c r="H20">
-        <v>6.238909</v>
+        <v>4.451434</v>
       </c>
       <c r="I20">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764967</v>
       </c>
       <c r="J20">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764966</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.330485333333333</v>
+        <v>6.101885666666667</v>
       </c>
       <c r="N20">
-        <v>6.991456</v>
+        <v>18.305657</v>
       </c>
       <c r="O20">
-        <v>0.03655621216383393</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="P20">
-        <v>0.03655621216383394</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="Q20">
-        <v>4.846561973500444</v>
+        <v>9.054047106904223</v>
       </c>
       <c r="R20">
-        <v>43.619057761504</v>
+        <v>81.48642396213801</v>
       </c>
       <c r="S20">
-        <v>0.01051386160999772</v>
+        <v>0.008112941043615748</v>
       </c>
       <c r="T20">
-        <v>0.01051386160999772</v>
+        <v>0.008112941043615747</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.079636333333333</v>
+        <v>1.483811333333333</v>
       </c>
       <c r="H21">
-        <v>6.238909</v>
+        <v>4.451434</v>
       </c>
       <c r="I21">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764967</v>
       </c>
       <c r="J21">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764966</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>29.178763</v>
       </c>
       <c r="N21">
-        <v>87.536289</v>
+        <v>87.53628900000001</v>
       </c>
       <c r="O21">
-        <v>0.4577008212193114</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="P21">
-        <v>0.4577008212193115</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="Q21">
-        <v>60.68121569652233</v>
+        <v>43.29577923204734</v>
       </c>
       <c r="R21">
-        <v>546.1309412687009</v>
+        <v>389.662013088426</v>
       </c>
       <c r="S21">
-        <v>0.1316384496160408</v>
+        <v>0.03879548009852418</v>
       </c>
       <c r="T21">
-        <v>0.1316384496160408</v>
+        <v>0.03879548009852418</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.079636333333333</v>
+        <v>1.483811333333333</v>
       </c>
       <c r="H22">
-        <v>6.238909</v>
+        <v>4.451434</v>
       </c>
       <c r="I22">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764967</v>
       </c>
       <c r="J22">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764966</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.3937893333333333</v>
+        <v>0.146644</v>
       </c>
       <c r="N22">
-        <v>1.181368</v>
+        <v>0.439932</v>
       </c>
       <c r="O22">
-        <v>0.006177016525822971</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="P22">
-        <v>0.006177016525822972</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="Q22">
-        <v>0.818938605279111</v>
+        <v>0.2175920291653333</v>
       </c>
       <c r="R22">
-        <v>7.370447447511999</v>
+        <v>1.958328262488</v>
       </c>
       <c r="S22">
-        <v>0.001776559798485435</v>
+        <v>0.0001949748309607223</v>
       </c>
       <c r="T22">
-        <v>0.001776559798485436</v>
+        <v>0.0001949748309607223</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.079636333333333</v>
+        <v>1.483811333333333</v>
       </c>
       <c r="H23">
-        <v>6.238909</v>
+        <v>4.451434</v>
       </c>
       <c r="I23">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764967</v>
       </c>
       <c r="J23">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764966</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>21.67565866666667</v>
+        <v>15.02284966666667</v>
       </c>
       <c r="N23">
-        <v>65.026976</v>
+        <v>45.068549</v>
       </c>
       <c r="O23">
-        <v>0.340006420841172</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="P23">
-        <v>0.3400064208411721</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="Q23">
-        <v>45.07748731213155</v>
+        <v>22.29107459436289</v>
       </c>
       <c r="R23">
-        <v>405.697385809184</v>
+        <v>200.619671349266</v>
       </c>
       <c r="S23">
-        <v>0.09778859032805802</v>
+        <v>0.01997407036296526</v>
       </c>
       <c r="T23">
-        <v>0.09778859032805803</v>
+        <v>0.01997407036296526</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,14 +1892,14 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
       <c r="E24">
         <v>3</v>
       </c>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.079636333333333</v>
+        <v>1.483811333333333</v>
       </c>
       <c r="H24">
-        <v>6.238909</v>
+        <v>4.451434</v>
       </c>
       <c r="I24">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764967</v>
       </c>
       <c r="J24">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764966</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>9.749056666666666</v>
+        <v>5.288900666666667</v>
       </c>
       <c r="N24">
-        <v>29.24717</v>
+        <v>15.866702</v>
       </c>
       <c r="O24">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="P24">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="Q24">
-        <v>20.27449245972555</v>
+        <v>7.847730750074223</v>
       </c>
       <c r="R24">
-        <v>182.47043213753</v>
+        <v>70.62957675066799</v>
       </c>
       <c r="S24">
-        <v>0.04398235472898307</v>
+        <v>0.007032012993722109</v>
       </c>
       <c r="T24">
-        <v>0.04398235472898307</v>
+        <v>0.007032012993722108</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,13 +1954,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.079636333333333</v>
+        <v>1.483811333333333</v>
       </c>
       <c r="H25">
-        <v>6.238909</v>
+        <v>4.451434</v>
       </c>
       <c r="I25">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764967</v>
       </c>
       <c r="J25">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764966</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -1987,28 +1987,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.4229803333333333</v>
+        <v>0.050258</v>
       </c>
       <c r="N25">
-        <v>1.268941</v>
+        <v>0.150774</v>
       </c>
       <c r="O25">
-        <v>0.006634909297775397</v>
+        <v>0.0009008537317934847</v>
       </c>
       <c r="P25">
-        <v>0.006634909297775398</v>
+        <v>0.0009008537317934848</v>
       </c>
       <c r="Q25">
-        <v>0.8796452694854443</v>
+        <v>0.07457338999066666</v>
       </c>
       <c r="R25">
-        <v>7.916807425368999</v>
+        <v>0.671160509916</v>
       </c>
       <c r="S25">
-        <v>0.001908253454681273</v>
+        <v>6.682199786165122E-05</v>
       </c>
       <c r="T25">
-        <v>0.001908253454681274</v>
+        <v>6.682199786165122E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,10 +2016,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -2031,16 +2031,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.06028266666666667</v>
+        <v>0.06394066666666666</v>
       </c>
       <c r="H26">
-        <v>0.180848</v>
+        <v>0.191822</v>
       </c>
       <c r="I26">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="J26">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.330485333333333</v>
+        <v>6.101885666666667</v>
       </c>
       <c r="N26">
-        <v>6.991456</v>
+        <v>18.305657</v>
       </c>
       <c r="O26">
-        <v>0.03655621216383393</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="P26">
-        <v>0.03655621216383394</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="Q26">
-        <v>0.1404878705208889</v>
+        <v>0.3901586374504444</v>
       </c>
       <c r="R26">
-        <v>1.264390834688</v>
+        <v>3.511427737054</v>
       </c>
       <c r="S26">
-        <v>0.0003047665616608397</v>
+        <v>0.000349604324554393</v>
       </c>
       <c r="T26">
-        <v>0.0003047665616608398</v>
+        <v>0.000349604324554393</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,10 +2078,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -2093,16 +2093,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.06028266666666667</v>
+        <v>0.06394066666666666</v>
       </c>
       <c r="H27">
-        <v>0.180848</v>
+        <v>0.191822</v>
       </c>
       <c r="I27">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="J27">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>29.178763</v>
       </c>
       <c r="N27">
-        <v>87.536289</v>
+        <v>87.53628900000001</v>
       </c>
       <c r="O27">
-        <v>0.4577008212193114</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="P27">
-        <v>0.4577008212193115</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="Q27">
-        <v>1.758973643674667</v>
+        <v>1.865709558728667</v>
       </c>
       <c r="R27">
-        <v>15.830762793072</v>
+        <v>16.791386028558</v>
       </c>
       <c r="S27">
-        <v>0.003815819454356802</v>
+        <v>0.001671781853546319</v>
       </c>
       <c r="T27">
-        <v>0.003815819454356802</v>
+        <v>0.001671781853546319</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,10 +2140,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -2155,46 +2155,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.06028266666666667</v>
+        <v>0.06394066666666666</v>
       </c>
       <c r="H28">
-        <v>0.180848</v>
+        <v>0.191822</v>
       </c>
       <c r="I28">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="J28">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.3937893333333333</v>
+        <v>0.146644</v>
       </c>
       <c r="N28">
-        <v>1.181368</v>
+        <v>0.439932</v>
       </c>
       <c r="O28">
-        <v>0.006177016525822971</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="P28">
-        <v>0.006177016525822972</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="Q28">
-        <v>0.02373867111822222</v>
+        <v>0.009376515122666665</v>
       </c>
       <c r="R28">
-        <v>0.213648040064</v>
+        <v>0.08438863610399999</v>
       </c>
       <c r="S28">
-        <v>5.149735096897455E-05</v>
+        <v>8.401890722079149E-06</v>
       </c>
       <c r="T28">
-        <v>5.149735096897456E-05</v>
+        <v>8.401890722079149E-06</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,10 +2202,10 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
@@ -2217,16 +2217,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.06028266666666667</v>
+        <v>0.06394066666666666</v>
       </c>
       <c r="H29">
-        <v>0.180848</v>
+        <v>0.191822</v>
       </c>
       <c r="I29">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="J29">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>21.67565866666667</v>
+        <v>15.02284966666667</v>
       </c>
       <c r="N29">
-        <v>65.026976</v>
+        <v>45.068549</v>
       </c>
       <c r="O29">
-        <v>0.340006420841172</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="P29">
-        <v>0.3400064208411721</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="Q29">
-        <v>1.306666506183111</v>
+        <v>0.9605710229197776</v>
       </c>
       <c r="R29">
-        <v>11.759998555648</v>
+        <v>8.645139206277999</v>
       </c>
       <c r="S29">
-        <v>0.002834609542092798</v>
+        <v>0.0008607262570139692</v>
       </c>
       <c r="T29">
-        <v>0.002834609542092799</v>
+        <v>0.0008607262570139693</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,13 +2264,13 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2279,16 +2279,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.06028266666666667</v>
+        <v>0.06394066666666666</v>
       </c>
       <c r="H30">
-        <v>0.180848</v>
+        <v>0.191822</v>
       </c>
       <c r="I30">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="J30">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>9.749056666666666</v>
+        <v>5.288900666666667</v>
       </c>
       <c r="N30">
-        <v>29.24717</v>
+        <v>15.866702</v>
       </c>
       <c r="O30">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="P30">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="Q30">
-        <v>0.5876991333511111</v>
+        <v>0.3381758345604444</v>
       </c>
       <c r="R30">
-        <v>5.289292200159999</v>
+        <v>3.043582511044</v>
       </c>
       <c r="S30">
-        <v>0.001274921767255642</v>
+        <v>0.0003030247772923877</v>
       </c>
       <c r="T30">
-        <v>0.001274921767255642</v>
+        <v>0.0003030247772923876</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,13 +2326,13 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2341,16 +2341,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.06028266666666667</v>
+        <v>0.06394066666666666</v>
       </c>
       <c r="H31">
-        <v>0.180848</v>
+        <v>0.191822</v>
       </c>
       <c r="I31">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="J31">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -2359,400 +2359,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.4229803333333333</v>
+        <v>0.050258</v>
       </c>
       <c r="N31">
-        <v>1.268941</v>
+        <v>0.150774</v>
       </c>
       <c r="O31">
-        <v>0.006634909297775397</v>
+        <v>0.0009008537317934847</v>
       </c>
       <c r="P31">
-        <v>0.006634909297775398</v>
+        <v>0.0009008537317934848</v>
       </c>
       <c r="Q31">
-        <v>0.02549838244088889</v>
+        <v>0.003213530025333333</v>
       </c>
       <c r="R31">
-        <v>0.229485441968</v>
+        <v>0.028921770228</v>
       </c>
       <c r="S31">
-        <v>5.531477070305064E-05</v>
+        <v>2.879505632076688E-06</v>
       </c>
       <c r="T31">
-        <v>5.531477070305065E-05</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G32">
-        <v>0.6601659999999999</v>
-      </c>
-      <c r="H32">
-        <v>1.980498</v>
-      </c>
-      <c r="I32">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="J32">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>2.330485333333333</v>
-      </c>
-      <c r="N32">
-        <v>6.991456</v>
-      </c>
-      <c r="O32">
-        <v>0.03655621216383393</v>
-      </c>
-      <c r="P32">
-        <v>0.03655621216383394</v>
-      </c>
-      <c r="Q32">
-        <v>1.538507180565333</v>
-      </c>
-      <c r="R32">
-        <v>13.846564625088</v>
-      </c>
-      <c r="S32">
-        <v>0.003337551788442061</v>
-      </c>
-      <c r="T32">
-        <v>0.003337551788442061</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G33">
-        <v>0.6601659999999999</v>
-      </c>
-      <c r="H33">
-        <v>1.980498</v>
-      </c>
-      <c r="I33">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="J33">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>29.178763</v>
-      </c>
-      <c r="N33">
-        <v>87.536289</v>
-      </c>
-      <c r="O33">
-        <v>0.4577008212193114</v>
-      </c>
-      <c r="P33">
-        <v>0.4577008212193115</v>
-      </c>
-      <c r="Q33">
-        <v>19.262827254658</v>
-      </c>
-      <c r="R33">
-        <v>173.365445291922</v>
-      </c>
-      <c r="S33">
-        <v>0.04178770457906494</v>
-      </c>
-      <c r="T33">
-        <v>0.04178770457906494</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G34">
-        <v>0.6601659999999999</v>
-      </c>
-      <c r="H34">
-        <v>1.980498</v>
-      </c>
-      <c r="I34">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="J34">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>0.3937893333333333</v>
-      </c>
-      <c r="N34">
-        <v>1.181368</v>
-      </c>
-      <c r="O34">
-        <v>0.006177016525822971</v>
-      </c>
-      <c r="P34">
-        <v>0.006177016525822972</v>
-      </c>
-      <c r="Q34">
-        <v>0.2599663290293333</v>
-      </c>
-      <c r="R34">
-        <v>2.339696961264</v>
-      </c>
-      <c r="S34">
-        <v>0.0005639564750472892</v>
-      </c>
-      <c r="T34">
-        <v>0.0005639564750472893</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G35">
-        <v>0.6601659999999999</v>
-      </c>
-      <c r="H35">
-        <v>1.980498</v>
-      </c>
-      <c r="I35">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="J35">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>21.67565866666667</v>
-      </c>
-      <c r="N35">
-        <v>65.026976</v>
-      </c>
-      <c r="O35">
-        <v>0.340006420841172</v>
-      </c>
-      <c r="P35">
-        <v>0.3400064208411721</v>
-      </c>
-      <c r="Q35">
-        <v>14.30953287933866</v>
-      </c>
-      <c r="R35">
-        <v>128.785795914048</v>
-      </c>
-      <c r="S35">
-        <v>0.03104230364115557</v>
-      </c>
-      <c r="T35">
-        <v>0.03104230364115557</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G36">
-        <v>0.6601659999999999</v>
-      </c>
-      <c r="H36">
-        <v>1.980498</v>
-      </c>
-      <c r="I36">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="J36">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>9.749056666666666</v>
-      </c>
-      <c r="N36">
-        <v>29.24717</v>
-      </c>
-      <c r="O36">
-        <v>0.1529246199520842</v>
-      </c>
-      <c r="P36">
-        <v>0.1529246199520842</v>
-      </c>
-      <c r="Q36">
-        <v>6.435995743406665</v>
-      </c>
-      <c r="R36">
-        <v>57.92396169065999</v>
-      </c>
-      <c r="S36">
-        <v>0.01396189070493599</v>
-      </c>
-      <c r="T36">
-        <v>0.01396189070493599</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G37">
-        <v>0.6601659999999999</v>
-      </c>
-      <c r="H37">
-        <v>1.980498</v>
-      </c>
-      <c r="I37">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="J37">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M37">
-        <v>0.4229803333333333</v>
-      </c>
-      <c r="N37">
-        <v>1.268941</v>
-      </c>
-      <c r="O37">
-        <v>0.006634909297775397</v>
-      </c>
-      <c r="P37">
-        <v>0.006634909297775398</v>
-      </c>
-      <c r="Q37">
-        <v>0.2792372347353333</v>
-      </c>
-      <c r="R37">
-        <v>2.513135112617999</v>
-      </c>
-      <c r="S37">
-        <v>0.0006057617045687559</v>
-      </c>
-      <c r="T37">
-        <v>0.000605761704568756</v>
+        <v>2.879505632076688E-06</v>
       </c>
     </row>
   </sheetData>
